--- a/datasets/example.xlsx
+++ b/datasets/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC988F-F612-4703-8E85-CFB093AB75C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1523F6-2E37-43C5-9B3A-82C155A0E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="570" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31830" yWindow="1650" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -1008,29 +1008,29 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2428,12 +2428,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>9</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>7</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>9</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>11</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>10</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>11</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>13</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>15</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>16</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>17</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>7</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>8</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>12</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>13</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>15</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>16</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>17</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>18</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>7</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>8</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>10</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>11</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>15</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>16</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>17</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>18</v>
       </c>
@@ -8751,13 +8751,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
+      <selection activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="T6">
         <v>7</v>
@@ -9093,7 +9093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -9158,7 +9158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>2</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="T15">
         <v>4</v>
@@ -9559,7 +9559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T16">
         <v>9</v>
@@ -9624,7 +9624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>2</v>
       </c>
       <c r="S24" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="T24">
         <v>9</v>
@@ -10025,7 +10025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -10090,7 +10090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -10155,12 +10155,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>9</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>7</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>9</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>11</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>10</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>11</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>13</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>15</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>16</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>17</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>7</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>8</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>12</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>13</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>15</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>16</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>17</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>18</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>7</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>8</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>10</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>11</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>15</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>16</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>17</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>18</v>
       </c>

--- a/datasets/example.xlsx
+++ b/datasets/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82124093-9CF7-48E0-9421-BE4BB84A3021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135CE9C2-6D35-4EF8-B7D1-F11C81B5A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K57" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79:W91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
